--- a/_ConfigExcels/Datas/__tables__.xlsx
+++ b/_ConfigExcels/Datas/__tables__.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\Project\TablePet\_ConfigExcels\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\Project\MiniGame_EarthDefender\_ConfigExcels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -132,6 +132,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>com_global_param.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_global_param</t>
+  </si>
+  <si>
     <r>
       <t>c</t>
     </r>
@@ -149,11 +156,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>com_global_param.xlsx</t>
+    <t>weapon</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>com_global_param</t>
+    <t>weapon.Weapon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -518,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -629,20 +645,119 @@
         <v>Tbcom.GlobalParam</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
-      </c>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="str">
+        <f t="shared" ref="B5:B8" si="0">"Tb"&amp;C5</f>
+        <v>Tbweapon.Weapon</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="G18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/_ConfigExcels/Datas/__tables__.xlsx
+++ b/_ConfigExcels/Datas/__tables__.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\Project\MiniGame_EarthDefender\_ConfigExcels\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -116,6 +111,38 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>om.GlobalParam</t>
+    </r>
+  </si>
+  <si>
+    <t>com_global_param.xlsx</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>m</t>
     </r>
     <r>
@@ -123,60 +150,48 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ap</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_global_param.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>com_global_param</t>
   </si>
   <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>om.GlobalParam</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>weapon.Weapon</t>
+  </si>
+  <si>
+    <t>weapon.xlsx</t>
+  </si>
+  <si>
+    <t>map</t>
   </si>
   <si>
     <t>weapon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>weapon.Weapon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>weapon.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>map</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dungeon.Dungeon</t>
+  </si>
+  <si>
+    <t>dungeon.xlsx</t>
+  </si>
+  <si>
+    <t>dungeon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,27 +203,155 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,8 +370,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -236,12 +559,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -249,28 +811,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -528,19 +1133,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="20.375" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
@@ -549,7 +1154,7 @@
     <col min="6" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +1189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -616,7 +1221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -639,13 +1244,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="2" t="str">
         <f>"Tb"&amp;C4</f>
         <v>Tbcom.GlobalParam</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -654,114 +1259,129 @@
         <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5" s="2" t="str">
         <f t="shared" ref="B5:B8" si="0">"Tb"&amp;C5</f>
         <v>Tbweapon.Weapon</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="K5" t="s">
         <v>34</v>
       </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="2" t="str">
+        <f>"Tb"&amp;C6</f>
+        <v>Tbdungeon.Dungeon</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="E7" s="3"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7">
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="E8" s="3"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="E9" s="3"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7">
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="E10" s="3"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7">
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="E11" s="3"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7">
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="E12" s="3"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7">
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="E13" s="3"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="E14" s="3"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7">
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="E15" s="3"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7">
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="E16" s="3"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7">
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="E17" s="3"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7">
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="E18" s="3"/>
       <c r="G18" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/_ConfigExcels/Datas/__tables__.xlsx
+++ b/_ConfigExcels/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -180,6 +180,24 @@
   <si>
     <t>dungeon</t>
   </si>
+  <si>
+    <t>dungeon.Wave</t>
+  </si>
+  <si>
+    <t>dungeon_wave.xlsx</t>
+  </si>
+  <si>
+    <t>dungeon_wave</t>
+  </si>
+  <si>
+    <t>enemy.Enemy</t>
+  </si>
+  <si>
+    <t>enemy.xlsx</t>
+  </si>
+  <si>
+    <t>enemy</t>
+  </si>
 </sst>
 </file>
 
@@ -191,7 +209,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,13 +220,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -351,7 +362,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,12 +438,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,133 +682,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -817,7 +822,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1142,7 +1147,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1267,7 +1272,7 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="2" t="str">
-        <f t="shared" ref="B5:B8" si="0">"Tb"&amp;C5</f>
+        <f>"Tb"&amp;C5</f>
         <v>Tbweapon.Weapon</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1307,17 +1312,47 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="G8" s="1"/>
+    <row r="7" spans="2:11">
+      <c r="B7" s="2" t="str">
+        <f>"Tb"&amp;C7</f>
+        <v>Tbdungeon.Wave</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="2" t="str">
+        <f>"Tb"&amp;C8</f>
+        <v>Tbenemy.Enemy</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="2"/>

--- a/_ConfigExcels/Datas/__tables__.xlsx
+++ b/_ConfigExcels/Datas/__tables__.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -181,7 +181,7 @@
     <t>dungeon</t>
   </si>
   <si>
-    <t>dungeon.Wave</t>
+    <t>dungeon.DungeonWave</t>
   </si>
   <si>
     <t>dungeon_wave.xlsx</t>
@@ -1147,7 +1147,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1315,7 +1315,7 @@
     <row r="7" spans="2:11">
       <c r="B7" s="2" t="str">
         <f>"Tb"&amp;C7</f>
-        <v>Tbdungeon.Wave</v>
+        <v>Tbdungeon.DungeonWave</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>38</v>

--- a/_ConfigExcels/Datas/__tables__.xlsx
+++ b/_ConfigExcels/Datas/__tables__.xlsx
@@ -1153,7 +1153,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="30.25" customWidth="1"/>
     <col min="4" max="4" width="32.375" customWidth="1"/>
     <col min="5" max="5" width="24.375" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>

--- a/_ConfigExcels/Datas/__tables__.xlsx
+++ b/_ConfigExcels/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="23490" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>##var</t>
   </si>
@@ -172,6 +172,21 @@
     <t>weapon</t>
   </si>
   <si>
+    <t>weapon.WeaponLevel</t>
+  </si>
+  <si>
+    <t>weapon_level.xlsx</t>
+  </si>
+  <si>
+    <t>id+level</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>weapon_level</t>
+  </si>
+  <si>
     <t>dungeon.Dungeon</t>
   </si>
   <si>
@@ -197,6 +212,15 @@
   </si>
   <si>
     <t>enemy</t>
+  </si>
+  <si>
+    <t>enemy.EnemyLevel</t>
+  </si>
+  <si>
+    <t>enemy_level.xlsx</t>
+  </si>
+  <si>
+    <t>enemy_level</t>
   </si>
 </sst>
 </file>
@@ -1144,10 +1168,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1272,7 +1296,7 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="2" t="str">
-        <f>"Tb"&amp;C5</f>
+        <f t="shared" ref="B5:B10" si="0">"Tb"&amp;C5</f>
         <v>Tbweapon.Weapon</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1293,8 +1317,8 @@
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="2" t="str">
-        <f>"Tb"&amp;C6</f>
-        <v>Tbdungeon.Dungeon</v>
+        <f t="shared" si="0"/>
+        <v>Tbweapon.WeaponLevel</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>35</v>
@@ -1305,66 +1329,102 @@
       <c r="E6" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="2" t="str">
-        <f>"Tb"&amp;C7</f>
-        <v>Tbdungeon.DungeonWave</v>
+        <f t="shared" si="0"/>
+        <v>Tbdungeon.Dungeon</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="2" t="str">
-        <f>"Tb"&amp;C8</f>
-        <v>Tbenemy.Enemy</v>
+        <f t="shared" si="0"/>
+        <v>Tbdungeon.DungeonWave</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="G10" s="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Tbenemy.Enemy</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="2:11">
+      <c r="B10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Tbenemy.EnemyLevel</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="2"/>
@@ -1413,6 +1473,12 @@
       <c r="C18" s="3"/>
       <c r="E18" s="3"/>
       <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="G19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_ConfigExcels/Datas/__tables__.xlsx
+++ b/_ConfigExcels/Datas/__tables__.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\Project\MiniGame_EarthDefender\_ConfigExcels\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23490" windowHeight="10560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23490" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>##var</t>
   </si>
@@ -115,6 +120,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -125,6 +131,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -140,6 +147,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -150,6 +158,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -222,18 +231,54 @@
   <si>
     <t>enemy_level</t>
   </si>
+  <si>
+    <r>
+      <t>player_attr_level</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>player</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.PlayerAttrLevel</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_attr_level</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,148 +290,27 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,182 +329,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -588,259 +338,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -849,62 +360,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1162,19 +633,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.375" customWidth="1"/>
     <col min="3" max="3" width="30.25" customWidth="1"/>
@@ -1183,7 +654,7 @@
     <col min="6" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1218,7 +689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:11">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1250,7 +721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:11">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1273,7 +744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="str">
         <f>"Tb"&amp;C4</f>
         <v>Tbcom.GlobalParam</v>
@@ -1294,9 +765,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="str">
-        <f t="shared" ref="B5:B10" si="0">"Tb"&amp;C5</f>
+        <f t="shared" ref="B5:B11" si="0">"Tb"&amp;C5</f>
         <v>Tbweapon.Weapon</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1315,7 +786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Tbweapon.WeaponLevel</v>
@@ -1339,7 +810,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Tbdungeon.Dungeon</v>
@@ -1360,7 +831,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Tbdungeon.DungeonWave</v>
@@ -1381,7 +852,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Tbenemy.Enemy</v>
@@ -1402,7 +873,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="2:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Tbenemy.EnemyLevel</v>
@@ -1426,63 +897,78 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Tbplayer.PlayerAttrLevel</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="E12" s="3"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="E13" s="3"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="E14" s="3"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="E15" s="3"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="E16" s="3"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="E17" s="3"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="E18" s="3"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="E19" s="3"/>
       <c r="G19" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/_ConfigExcels/Datas/__tables__.xlsx
+++ b/_ConfigExcels/Datas/__tables__.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
   <si>
     <t>##var</t>
   </si>
@@ -271,6 +271,158 @@
   </si>
   <si>
     <t>player_attr_level</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局参数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器等级表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡波次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家可养成属性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人类型表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nemy.EnemyTypeIndex</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy_type_index.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>enemy_type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_index</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tem.Item</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_data</t>
+  </si>
+  <si>
+    <r>
+      <t>player_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>layer.PlayerData</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -641,17 +793,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.375" customWidth="1"/>
     <col min="3" max="3" width="30.25" customWidth="1"/>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
-    <col min="6" max="9" width="18" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="32.375" customWidth="1"/>
+    <col min="6" max="6" width="24.375" customWidth="1"/>
+    <col min="7" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -665,22 +818,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
@@ -700,22 +853,22 @@
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>20</v>
@@ -725,19 +878,19 @@
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -752,13 +905,16 @@
       <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="b">
+      <c r="D4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K4" t="s">
@@ -767,19 +923,22 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="str">
-        <f t="shared" ref="B5:B11" si="0">"Tb"&amp;C5</f>
+        <f t="shared" ref="B5:B14" si="0">"Tb"&amp;C5</f>
         <v>Tbweapon.Weapon</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="b">
+      <c r="D5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K5" t="s">
@@ -794,16 +953,19 @@
       <c r="C6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D6" t="b">
+      <c r="D6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K6" t="s">
@@ -818,13 +980,16 @@
       <c r="C7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D7" t="b">
+      <c r="D7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K7" t="s">
@@ -839,13 +1004,16 @@
       <c r="C8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D8" t="b">
+      <c r="D8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K8" t="s">
@@ -860,13 +1028,16 @@
       <c r="C9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D9" t="b">
+      <c r="D9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K9" t="s">
@@ -881,16 +1052,19 @@
       <c r="C10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D10" t="b">
+      <c r="D10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K10" t="s">
@@ -899,72 +1073,127 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="str">
+        <f>"Tb"&amp;C11</f>
+        <v>Tbenemy.EnemyTypeIndex</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Tbplayer.PlayerAttrLevel</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D11" t="b">
+      <c r="D12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="G12" s="1"/>
-    </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="G13" s="1"/>
+      <c r="B13" s="2" t="str">
+        <f>"Tb"&amp;C13</f>
+        <v>Tbplayer.PlayerData</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="K13" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="G14" s="1"/>
+      <c r="B14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Tbitem.Item</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="G15" s="1"/>
+      <c r="F15" s="3"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F16" s="3"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F17" s="3"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F18" s="3"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="G19" s="1"/>
+      <c r="F19" s="3"/>
+      <c r="H19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/_ConfigExcels/Datas/__tables__.xlsx
+++ b/_ConfigExcels/Datas/__tables__.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
   <si>
     <t>##var</t>
   </si>
@@ -424,6 +424,21 @@
       <t>layer.PlayerData</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dungeon_exp.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡玩家升级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dungeon.DungeonExp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dungeon_exp</t>
   </si>
 </sst>
 </file>
@@ -791,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -923,7 +938,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="str">
-        <f t="shared" ref="B5:B14" si="0">"Tb"&amp;C5</f>
+        <f t="shared" ref="B5:B15" si="0">"Tb"&amp;C5</f>
         <v>Tbweapon.Weapon</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1022,154 +1037,170 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Tbenemy.Enemy</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>46</v>
+        <f>"Tb"&amp;C9</f>
+        <v>Tbdungeon.DungeonExp</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="F9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="1"/>
       <c r="K9" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Tbenemy.EnemyLevel</v>
+        <v>Tbenemy.Enemy</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="str">
-        <f>"Tb"&amp;C11</f>
-        <v>Tbenemy.EnemyTypeIndex</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>66</v>
+        <f t="shared" si="0"/>
+        <v>Tbenemy.EnemyLevel</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>67</v>
+      <c r="F11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>68</v>
+        <v>38</v>
+      </c>
+      <c r="K11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="str">
+        <f>"Tb"&amp;C12</f>
+        <v>Tbenemy.EnemyTypeIndex</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Tbplayer.PlayerAttrLevel</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="str">
-        <f>"Tb"&amp;C13</f>
-        <v>Tbplayer.PlayerData</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="K13" t="s">
-        <v>74</v>
+        <v>52</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="str">
+        <f>"Tb"&amp;C14</f>
+        <v>Tbplayer.PlayerData</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="K14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Tbitem.Item</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E14" t="b">
+      <c r="E15" t="b">
         <v>1</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
@@ -1195,9 +1226,15 @@
       <c r="F19" s="3"/>
       <c r="H19" s="1"/>
     </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="H20" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/_ConfigExcels/Datas/__tables__.xlsx
+++ b/_ConfigExcels/Datas/__tables__.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
   <si>
     <t>##var</t>
   </si>
@@ -439,6 +439,47 @@
   </si>
   <si>
     <t>dungeon_exp</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <r>
+      <t>card</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3选1卡组表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ard.Card</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -808,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -938,7 +979,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="str">
-        <f t="shared" ref="B5:B15" si="0">"Tb"&amp;C5</f>
+        <f t="shared" ref="B5:B16" si="0">"Tb"&amp;C5</f>
         <v>Tbweapon.Weapon</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1203,10 +1244,26 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="B16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Tbcard.Card</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="H16" s="1"/>
+      <c r="K16" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>

--- a/_ConfigExcels/Datas/__tables__.xlsx
+++ b/_ConfigExcels/Datas/__tables__.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
   <si>
     <t>##var</t>
   </si>
@@ -479,6 +479,39 @@
       </rPr>
       <t>ard.Card</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.Color</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_color.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_color</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -850,7 +883,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -979,311 +1012,329 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="str">
-        <f t="shared" ref="B5:B16" si="0">"Tb"&amp;C5</f>
-        <v>Tbweapon.Weapon</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>31</v>
+        <f>"Tb"&amp;C5</f>
+        <v>Tbcom.Color</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>32</v>
+      <c r="F5" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
+        <v>89</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Tbweapon.WeaponLevel</v>
+        <f t="shared" ref="B6:B17" si="0">"Tb"&amp;C6</f>
+        <v>Tbweapon.Weapon</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Tbdungeon.Dungeon</v>
+        <v>Tbweapon.WeaponLevel</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Tbdungeon.DungeonWave</v>
+        <v>Tbdungeon.Dungeon</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="str">
-        <f>"Tb"&amp;C9</f>
-        <v>Tbdungeon.DungeonExp</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>80</v>
+        <f t="shared" si="0"/>
+        <v>Tbdungeon.DungeonWave</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" s="1"/>
+      <c r="F9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="K9" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Tbenemy.Enemy</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>46</v>
+        <f>"Tb"&amp;C10</f>
+        <v>Tbdungeon.DungeonExp</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="F10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="1"/>
       <c r="K10" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Tbenemy.EnemyLevel</v>
+        <v>Tbenemy.Enemy</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="str">
-        <f>"Tb"&amp;C12</f>
-        <v>Tbenemy.EnemyTypeIndex</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>66</v>
+        <f t="shared" si="0"/>
+        <v>Tbenemy.EnemyLevel</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>67</v>
+      <c r="F12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>68</v>
+        <v>38</v>
+      </c>
+      <c r="K12" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="str">
+        <f>"Tb"&amp;C13</f>
+        <v>Tbenemy.EnemyTypeIndex</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Tbplayer.PlayerAttrLevel</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="str">
-        <f>"Tb"&amp;C14</f>
-        <v>Tbplayer.PlayerData</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="K14" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Tbitem.Item</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>69</v>
+        <f>"Tb"&amp;C15</f>
+        <v>Tbplayer.PlayerData</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="K15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
+        <v>Tbitem.Item</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Tbcard.Card</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="K16" t="s">
+      <c r="H17" s="1"/>
+      <c r="K17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="F18" s="3"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="F19" s="3"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="F20" s="3"/>

--- a/_ConfigExcels/Datas/__tables__.xlsx
+++ b/_ConfigExcels/Datas/__tables__.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="96">
   <si>
     <t>##var</t>
   </si>
@@ -512,6 +512,39 @@
   </si>
   <si>
     <t>com_color</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>om.Drop</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_drop.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_drop</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -882,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1036,297 +1069,315 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="str">
-        <f t="shared" ref="B6:B17" si="0">"Tb"&amp;C6</f>
-        <v>Tbweapon.Weapon</v>
+        <f>"Tb"&amp;C6</f>
+        <v>Tbcom.Drop</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>32</v>
+      <c r="F6" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" t="s">
-        <v>34</v>
+        <v>94</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Tbweapon.WeaponLevel</v>
+        <f t="shared" ref="B7:B18" si="0">"Tb"&amp;C7</f>
+        <v>Tbweapon.Weapon</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Tbdungeon.Dungeon</v>
+        <v>Tbweapon.WeaponLevel</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Tbdungeon.DungeonWave</v>
+        <v>Tbdungeon.Dungeon</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="str">
-        <f>"Tb"&amp;C10</f>
-        <v>Tbdungeon.DungeonExp</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>80</v>
+        <f t="shared" si="0"/>
+        <v>Tbdungeon.DungeonWave</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="1"/>
+      <c r="F10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="K10" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Tbenemy.Enemy</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>46</v>
+        <f>"Tb"&amp;C11</f>
+        <v>Tbdungeon.DungeonExp</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="F11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="1"/>
       <c r="K11" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Tbenemy.EnemyLevel</v>
+        <v>Tbenemy.Enemy</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="str">
-        <f>"Tb"&amp;C13</f>
-        <v>Tbenemy.EnemyTypeIndex</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>66</v>
+        <f t="shared" si="0"/>
+        <v>Tbenemy.EnemyLevel</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>67</v>
+      <c r="F13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>68</v>
+        <v>38</v>
+      </c>
+      <c r="K13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="str">
+        <f>"Tb"&amp;C14</f>
+        <v>Tbenemy.EnemyTypeIndex</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Tbplayer.PlayerAttrLevel</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="str">
-        <f>"Tb"&amp;C15</f>
-        <v>Tbplayer.PlayerData</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="K15" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Tbitem.Item</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>69</v>
+        <f>"Tb"&amp;C16</f>
+        <v>Tbplayer.PlayerData</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="K16" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
+        <v>Tbitem.Item</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Tbcard.Card</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E17" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="K17" t="s">
+      <c r="H18" s="1"/>
+      <c r="K18" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>

--- a/_ConfigExcels/Datas/__tables__.xlsx
+++ b/_ConfigExcels/Datas/__tables__.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="101">
   <si>
     <t>##var</t>
   </si>
@@ -545,6 +545,52 @@
   </si>
   <si>
     <t>com_drop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hest.ChestLoop</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chest_loop.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hest_loop</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -916,7 +962,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1093,7 +1139,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="str">
-        <f t="shared" ref="B7:B18" si="0">"Tb"&amp;C7</f>
+        <f t="shared" ref="B7:B19" si="0">"Tb"&amp;C7</f>
         <v>Tbweapon.Weapon</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1380,10 +1426,28 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="H19" s="1"/>
+      <c r="B19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Tbchest.ChestLoop</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>

--- a/_ConfigExcels/Datas/__tables__.xlsx
+++ b/_ConfigExcels/Datas/__tables__.xlsx
@@ -573,10 +573,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>map</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>c</t>
     </r>
@@ -591,6 +587,10 @@
       </rPr>
       <t>hest_loop</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -962,7 +962,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1443,10 +1443,10 @@
         <v>98</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">

--- a/_ConfigExcels/Datas/__tables__.xlsx
+++ b/_ConfigExcels/Datas/__tables__.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="110">
   <si>
     <t>##var</t>
   </si>
@@ -591,6 +591,55 @@
   </si>
   <si>
     <t>list</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVG事件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vg.AvgEvent</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg.AvgStory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVG事件组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg_story.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg_event.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg_event</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg_story</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -959,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1139,7 +1188,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="str">
-        <f t="shared" ref="B7:B19" si="0">"Tb"&amp;C7</f>
+        <f t="shared" ref="B7:B20" si="0">"Tb"&amp;C7</f>
         <v>Tbweapon.Weapon</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1450,10 +1499,52 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="H20" s="1"/>
+      <c r="B20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Tbavg.AvgEvent</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="str">
+        <f t="shared" ref="B21" si="1">"Tb"&amp;C21</f>
+        <v>Tbavg.AvgStory</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/_ConfigExcels/Datas/__tables__.xlsx
+++ b/_ConfigExcels/Datas/__tables__.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="115">
   <si>
     <t>##var</t>
   </si>
@@ -640,6 +640,26 @@
   </si>
   <si>
     <t>avg_story</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.RedPoint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红点表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_redpoint.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_redpoint</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1008,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1524,7 +1544,7 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="str">
-        <f t="shared" ref="B21" si="1">"Tb"&amp;C21</f>
+        <f t="shared" ref="B21:B22" si="1">"Tb"&amp;C21</f>
         <v>Tbavg.AvgStory</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1544,6 +1564,30 @@
       </c>
       <c r="K21" s="4" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Tbcom.RedPoint</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/_ConfigExcels/Datas/__tables__.xlsx
+++ b/_ConfigExcels/Datas/__tables__.xlsx
@@ -643,23 +643,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>com.RedPoint</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>红点表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>com_redpoint.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>map</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>com_redpoint</t>
+    <t>com_reddot.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_reddot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.RedDot</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1031,7 +1031,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1569,13 +1569,13 @@
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Tbcom.RedPoint</v>
+        <v>Tbcom.RedDot</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -1584,10 +1584,10 @@
         <v>112</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/_ConfigExcels/Datas/__tables__.xlsx
+++ b/_ConfigExcels/Datas/__tables__.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="120">
   <si>
     <t>##var</t>
   </si>
@@ -660,6 +660,26 @@
   </si>
   <si>
     <t>com.RedDot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop.drawLevel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店抽卡表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_drawlevel.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_drawlevel</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1028,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1544,7 +1564,7 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="str">
-        <f t="shared" ref="B21:B22" si="1">"Tb"&amp;C21</f>
+        <f t="shared" ref="B21:B23" si="1">"Tb"&amp;C21</f>
         <v>Tbavg.AvgStory</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1588,6 +1608,30 @@
       </c>
       <c r="K22" s="4" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Tbshop.drawLevel</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/_ConfigExcels/Datas/__tables__.xlsx
+++ b/_ConfigExcels/Datas/__tables__.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="120">
   <si>
     <t>##var</t>
   </si>
@@ -1051,7 +1051,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1388,11 +1388,8 @@
       <c r="F13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
       <c r="H13" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K13" t="s">
         <v>51</v>

--- a/_ConfigExcels/Datas/__tables__.xlsx
+++ b/_ConfigExcels/Datas/__tables__.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="125">
   <si>
     <t>##var</t>
   </si>
@@ -680,6 +680,26 @@
   </si>
   <si>
     <t>shop_drawlevel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon.Bullet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器子弹表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon_bullet.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon_bullet</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1048,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1561,7 +1581,7 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="str">
-        <f t="shared" ref="B21:B23" si="1">"Tb"&amp;C21</f>
+        <f t="shared" ref="B21:B24" si="1">"Tb"&amp;C21</f>
         <v>Tbavg.AvgStory</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1629,6 +1649,30 @@
       </c>
       <c r="K23" s="4" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Tbweapon.Bullet</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
